--- a/portugal_districts_islands.xlsx
+++ b/portugal_districts_islands.xlsx
@@ -100,7 +100,7 @@
     <t xml:space="preserve">12</t>
   </si>
   <si>
-    <t xml:space="preserve">Portalege</t>
+    <t xml:space="preserve">Portalegre</t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
@@ -306,7 +306,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -323,6 +323,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,17 +340,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
   </cols>
@@ -366,7 +370,7 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -374,7 +378,7 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -382,7 +386,7 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -390,7 +394,7 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -398,7 +402,7 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -406,7 +410,7 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -414,7 +418,7 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -422,7 +426,7 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -430,7 +434,7 @@
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -438,7 +442,7 @@
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -446,7 +450,7 @@
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -454,7 +458,7 @@
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -462,7 +466,7 @@
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -470,7 +474,7 @@
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -478,7 +482,7 @@
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -486,7 +490,7 @@
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -494,7 +498,7 @@
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -502,7 +506,7 @@
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -510,10 +514,10 @@
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -521,10 +525,10 @@
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -532,10 +536,10 @@
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -543,10 +547,10 @@
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -570,7 +574,7 @@
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -578,7 +582,7 @@
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -586,7 +590,7 @@
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -594,7 +598,7 @@
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -602,7 +606,7 @@
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -610,7 +614,7 @@
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -618,7 +622,7 @@
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -626,7 +630,7 @@
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -634,7 +638,7 @@
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="4" t="s">
         <v>67</v>
       </c>
     </row>
